--- a/unemployment/aggregate.xlsx
+++ b/unemployment/aggregate.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/biofanat/Downloads/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{50758502-F2D2-AF49-8804-9CDFEFCF567E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="4440" yWindow="760" windowWidth="25800" windowHeight="17660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="BLS Data Series" sheetId="1" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="BLS Data Series"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -109,14 +103,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="#0.0"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color indexed="8"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -124,41 +118,22 @@
     <font>
       <b/>
       <sz val="12"/>
-      <color indexed="8"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
-      <color indexed="8"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
-      <color indexed="8"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -169,12 +144,12 @@
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFffffff"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -183,11 +158,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="thin">
+        <color rgb="FFc6c6c6"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFc6c6c6"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFc6c6c6"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFc6c6c6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFc6c6c6"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFc6c6c6"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFc6c6c6"/>
+      </top>
       <bottom style="thick">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -195,45 +191,68 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="18">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -244,10 +263,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -274,116 +293,82 @@
         <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -395,765 +380,885 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:tint val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:tint val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="9500"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot rev="0" lon="0" lat="0"/>
+            </a:camera>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:tint val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
   <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="12" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
+    <sheetView workbookViewId="0" tabSelected="1">
+      <pane state="frozen" activePane="bottomLeft" topLeftCell="A13" ySplit="12" xSplit="0"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="2" width="8" customWidth="1"/>
+    <col min="1" max="1" style="15" width="20.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="16" width="8.005" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="16" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="16" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="16" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="16" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="16" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="16" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="17" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="17" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="17" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="17" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="17" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-    </row>
-    <row r="2" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
+      <c r="A3" s="4"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25" customFormat="1" s="5">
+      <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="8" t="s">
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25" customFormat="1" s="5">
+      <c r="A5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25" customFormat="1" s="5">
+      <c r="A6" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25" customFormat="1" s="5">
+      <c r="A7" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25" customFormat="1" s="5">
+      <c r="A8" s="6" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25" customFormat="1" s="5">
+      <c r="A9" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
+      <c r="A10" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25" customFormat="1" s="5">
+      <c r="A12" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G12" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="H12" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="I12" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="J12" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="K12" s="1" t="s">
+      <c r="K12" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="L12" s="1" t="s">
+      <c r="L12" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="M12" s="1" t="s">
+      <c r="M12" s="12" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="2">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+      <c r="A13" s="13">
         <v>2014</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="14">
         <v>7</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="14">
         <v>7</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="14">
         <v>6.8</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="14">
         <v>5.9</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="14">
         <v>6.1</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="14">
         <v>6.3</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H13" s="14">
         <v>6.5</v>
       </c>
-      <c r="I13" s="3">
+      <c r="I13" s="14">
         <v>6.3</v>
       </c>
-      <c r="J13" s="3">
+      <c r="J13" s="14">
         <v>5.7</v>
       </c>
-      <c r="K13" s="3">
+      <c r="K13" s="14">
         <v>5.5</v>
       </c>
-      <c r="L13" s="3">
+      <c r="L13" s="14">
         <v>5.5</v>
       </c>
-      <c r="M13" s="3">
+      <c r="M13" s="14">
         <v>5.4</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="2">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18">
+      <c r="A14" s="13">
         <v>2015</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="14">
         <v>6.1</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="14">
         <v>5.8</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="14">
         <v>5.6</v>
       </c>
-      <c r="E14" s="3">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="F14" s="3">
+      <c r="E14" s="14">
+        <v>5.1</v>
+      </c>
+      <c r="F14" s="14">
         <v>5.3</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="14">
         <v>5.5</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="14">
         <v>5.6</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="14">
         <v>5.2</v>
       </c>
-      <c r="J14" s="3">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="K14" s="3">
+      <c r="J14" s="14">
+        <v>4.9</v>
+      </c>
+      <c r="K14" s="14">
         <v>4.8</v>
       </c>
-      <c r="L14" s="3">
+      <c r="L14" s="14">
         <v>4.8</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M14" s="14">
         <v>4.8</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="2">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18">
+      <c r="A15" s="13">
         <v>2016</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="14">
         <v>5.3</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="14">
         <v>5.2</v>
       </c>
-      <c r="D15" s="3">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="E15" s="3">
+      <c r="D15" s="14">
+        <v>5.1</v>
+      </c>
+      <c r="E15" s="14">
         <v>4.7</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="14">
         <v>4.5</v>
       </c>
-      <c r="G15" s="3">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="H15" s="3">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="I15" s="3">
+      <c r="G15" s="14">
+        <v>5.1</v>
+      </c>
+      <c r="H15" s="14">
+        <v>5.1</v>
+      </c>
+      <c r="I15" s="14">
         <v>5</v>
       </c>
-      <c r="J15" s="3">
+      <c r="J15" s="14">
         <v>4.8</v>
       </c>
-      <c r="K15" s="3">
+      <c r="K15" s="14">
         <v>4.7</v>
       </c>
-      <c r="L15" s="3">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="M15" s="3">
+      <c r="L15" s="14">
+        <v>4.4</v>
+      </c>
+      <c r="M15" s="14">
         <v>4.5</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="2">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18">
+      <c r="A16" s="13">
         <v>2017</v>
       </c>
-      <c r="B16" s="3">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="C16" s="3">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="D16" s="3">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="E16" s="3">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="F16" s="3">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="G16" s="3">
+      <c r="B16" s="14">
+        <v>5.1</v>
+      </c>
+      <c r="C16" s="14">
+        <v>4.9</v>
+      </c>
+      <c r="D16" s="14">
+        <v>4.6</v>
+      </c>
+      <c r="E16" s="14">
+        <v>4.1</v>
+      </c>
+      <c r="F16" s="14">
+        <v>4.1</v>
+      </c>
+      <c r="G16" s="14">
         <v>4.5</v>
       </c>
-      <c r="H16" s="3">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="I16" s="3">
+      <c r="H16" s="14">
+        <v>4.6</v>
+      </c>
+      <c r="I16" s="14">
         <v>4.5</v>
       </c>
-      <c r="J16" s="3">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="K16" s="3">
+      <c r="J16" s="14">
+        <v>4.1</v>
+      </c>
+      <c r="K16" s="14">
         <v>3.9</v>
       </c>
-      <c r="L16" s="3">
+      <c r="L16" s="14">
         <v>3.9</v>
       </c>
-      <c r="M16" s="3">
+      <c r="M16" s="14">
         <v>3.9</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A17" s="2">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18">
+      <c r="A17" s="13">
         <v>2018</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="14">
         <v>4.5</v>
       </c>
-      <c r="C17" s="3">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="D17" s="3">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="E17" s="3">
+      <c r="C17" s="14">
+        <v>4.4</v>
+      </c>
+      <c r="D17" s="14">
+        <v>4.1</v>
+      </c>
+      <c r="E17" s="14">
         <v>3.7</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="14">
         <v>3.6</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G17" s="14">
         <v>4.2</v>
       </c>
-      <c r="H17" s="3">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="I17" s="3">
+      <c r="H17" s="14">
+        <v>4.1</v>
+      </c>
+      <c r="I17" s="14">
         <v>3.9</v>
       </c>
-      <c r="J17" s="3">
+      <c r="J17" s="14">
         <v>3.6</v>
       </c>
-      <c r="K17" s="3">
+      <c r="K17" s="14">
         <v>3.5</v>
       </c>
-      <c r="L17" s="3">
+      <c r="L17" s="14">
         <v>3.5</v>
       </c>
-      <c r="M17" s="3">
+      <c r="M17" s="14">
         <v>3.7</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A18" s="2">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18">
+      <c r="A18" s="13">
         <v>2019</v>
       </c>
-      <c r="B18" s="3">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="C18" s="3">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="D18" s="3">
+      <c r="B18" s="14">
+        <v>4.4</v>
+      </c>
+      <c r="C18" s="14">
+        <v>4.1</v>
+      </c>
+      <c r="D18" s="14">
         <v>3.9</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="14">
         <v>3.3</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="14">
         <v>3.4</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G18" s="14">
         <v>3.8</v>
       </c>
-      <c r="H18" s="3">
+      <c r="H18" s="14">
         <v>4</v>
       </c>
-      <c r="I18" s="3">
+      <c r="I18" s="14">
         <v>3.8</v>
       </c>
-      <c r="J18" s="3">
+      <c r="J18" s="14">
         <v>3.3</v>
       </c>
-      <c r="K18" s="3">
+      <c r="K18" s="14">
         <v>3.3</v>
       </c>
-      <c r="L18" s="3">
+      <c r="L18" s="14">
         <v>3.3</v>
       </c>
-      <c r="M18" s="3">
+      <c r="M18" s="14">
         <v>3.4</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19" s="2">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18">
+      <c r="A19" s="13">
         <v>2020</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="14">
         <v>4</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="14">
         <v>3.8</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="14">
         <v>4.5</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="14">
         <v>14.4</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19" s="14">
         <v>13</v>
       </c>
-      <c r="G19" s="3">
+      <c r="G19" s="14">
         <v>11.2</v>
       </c>
-      <c r="H19" s="3">
+      <c r="H19" s="14">
         <v>10.5</v>
       </c>
-      <c r="I19" s="3">
+      <c r="I19" s="14">
         <v>8.5</v>
       </c>
-      <c r="J19" s="3">
+      <c r="J19" s="14">
         <v>7.7</v>
       </c>
-      <c r="K19" s="3">
+      <c r="K19" s="14">
         <v>6.6</v>
       </c>
-      <c r="L19" s="3">
+      <c r="L19" s="14">
         <v>6.4</v>
       </c>
-      <c r="M19" s="3">
+      <c r="M19" s="14">
         <v>6.5</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20" s="2">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18">
+      <c r="A20" s="13">
         <v>2021</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="14">
         <v>6.8</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="14">
         <v>6.6</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="14">
         <v>6.2</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="14">
         <v>5.7</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="14">
         <v>5.5</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G20" s="14">
         <v>6.1</v>
       </c>
-      <c r="H20" s="3">
+      <c r="H20" s="14">
         <v>5.7</v>
       </c>
-      <c r="I20" s="3">
+      <c r="I20" s="14">
         <v>5.3</v>
       </c>
-      <c r="J20" s="3">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="K20" s="3">
+      <c r="J20" s="14">
+        <v>4.6</v>
+      </c>
+      <c r="K20" s="14">
         <v>4.3</v>
       </c>
-      <c r="L20" s="3">
+      <c r="L20" s="14">
         <v>3.9</v>
       </c>
-      <c r="M20" s="3">
+      <c r="M20" s="14">
         <v>3.7</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A21" s="2">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18">
+      <c r="A21" s="13">
         <v>2022</v>
       </c>
-      <c r="B21" s="3">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="C21" s="3">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="D21" s="3">
+      <c r="B21" s="14">
+        <v>4.4</v>
+      </c>
+      <c r="C21" s="14">
+        <v>4.1</v>
+      </c>
+      <c r="D21" s="14">
         <v>3.8</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="14">
         <v>3.3</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="14">
         <v>3.4</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21" s="14">
         <v>3.8</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H21" s="14">
         <v>3.8</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I21" s="14">
         <v>3.8</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="14">
         <v>3.3</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="14">
         <v>3.4</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="14">
         <v>3.4</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M21" s="14">
         <v>3.3</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A22" s="2">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18">
+      <c r="A22" s="13">
         <v>2023</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22" s="14">
         <v>3.9</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="14">
         <v>3.9</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="14">
         <v>3.6</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="14">
         <v>3.1</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22" s="14">
         <v>3.4</v>
       </c>
-      <c r="G22" s="3">
+      <c r="G22" s="14">
         <v>3.8</v>
       </c>
-      <c r="H22" s="3">
+      <c r="H22" s="14">
         <v>3.8</v>
       </c>
-      <c r="I22" s="3">
+      <c r="I22" s="14">
         <v>3.9</v>
       </c>
-      <c r="J22" s="3">
+      <c r="J22" s="14">
         <v>3.6</v>
       </c>
-      <c r="K22" s="3">
+      <c r="K22" s="14">
         <v>3.6</v>
       </c>
-      <c r="L22" s="3">
+      <c r="L22" s="14">
         <v>3.5</v>
       </c>
-      <c r="M22" s="3">
+      <c r="M22" s="14">
         <v>3.5</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A23" s="2">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25">
+      <c r="A23" s="13">
         <v>2024</v>
       </c>
-      <c r="B23" s="3">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="C23" s="3">
+      <c r="B23" s="14">
+        <v>4.1</v>
+      </c>
+      <c r="C23" s="14">
         <v>4.2</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="14">
         <v>3.9</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23" s="14">
         <v>3.5</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F23" s="14">
         <v>3.7</v>
       </c>
-      <c r="G23" s="3">
+      <c r="G23" s="14">
         <v>4.3</v>
       </c>
-      <c r="H23" s="3">
+      <c r="H23" s="14">
         <v>4.5</v>
       </c>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="A5:F5"/>
     <mergeCell ref="B6:F6"/>
     <mergeCell ref="B7:F7"/>
     <mergeCell ref="B8:F8"/>
     <mergeCell ref="B9:F9"/>
     <mergeCell ref="B10:F10"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="A5:F5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="landscape"/>
-  <headerFooter>
-    <oddHeader>&amp;CBureau of Labor Statistics</oddHeader>
-    <oddFooter>&amp;LSource: Bureau of Labor Statistics&amp;RGenerated on: August 2, 2024 (02:41:59 PM)</oddFooter>
-  </headerFooter>
 </worksheet>
 </file>